--- a/doc/comparaisons.xlsx
+++ b/doc/comparaisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjouen/Documents/GitHub/Red-System/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B14BD9A-A10D-664B-BE1B-E100D3E24833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5C9840-E2E6-2343-A11D-821B9967F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{3FDEC8BE-57AC-BF40-9320-70B52F74FB79}"/>
   </bookViews>
@@ -6959,7 +6959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38C1E6C-6E3D-FF47-890E-8952968F7685}">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A380" sqref="A380:XFD380"/>
     </sheetView>
   </sheetViews>
